--- a/analysis/queryResults/FrequentItemsets_ocspStapling20022018.xlsx
+++ b/analysis/queryResults/FrequentItemsets_ocspStapling20022018.xlsx
@@ -263,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,19 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,14 +622,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -698,6 +684,3807 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>OCSP Stapling Value</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_ocspStapling20!$B$2,FrequentItemsets_ocspStapling20!$B$5,FrequentItemsets_ocspStapling20!$B$20)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>{ocspstapling=false}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{ocspstapling=true}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{ocspstapling=null}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_ocspStapling20!$C$2,FrequentItemsets_ocspStapling20!$C$5,FrequentItemsets_ocspStapling20!$C$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.72463807406604097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25287371902618899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2488206907769901E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1141557472"/>
+        <c:axId val="1141558016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1141557472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141558016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1141558016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1141557472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>OCSP Stapling False Value Ratings Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_ocspStapling20!$B$2,FrequentItemsets_ocspStapling20!$B$4,FrequentItemsets_ocspStapling20!$B$9,FrequentItemsets_ocspStapling20!$B$12,FrequentItemsets_ocspStapling20!$B$14,FrequentItemsets_ocspStapling20!$B$15,FrequentItemsets_ocspStapling20!$B$16,FrequentItemsets_ocspStapling20!$B$19)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{ocspstapling=false}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,ocspstapling=false}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=B,ocspstapling=false}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=A+,ocspstapling=false}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=A-,ocspstapling=false}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=F,ocspstapling=false}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=C,ocspstapling=false}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{rating=T,ocspstapling=false}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_ocspStapling20!$C$2,FrequentItemsets_ocspStapling20!$C$4,FrequentItemsets_ocspStapling20!$C$9,FrequentItemsets_ocspStapling20!$C$12,FrequentItemsets_ocspStapling20!$C$14,FrequentItemsets_ocspStapling20!$C$15,FrequentItemsets_ocspStapling20!$C$16,FrequentItemsets_ocspStapling20!$C$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.72463807406604097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.267418532776663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11139727810009201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9288618988233995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4554031339803706E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1788754541018296E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6149758716044005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4041099604185903E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1197393392"/>
+        <c:axId val="1197387952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1197393392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197387952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1197387952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197393392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>OCSP Stapling True Value Ratings Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_ocspStapling20!$B$5,FrequentItemsets_ocspStapling20!$B$8,FrequentItemsets_ocspStapling20!$B$17,FrequentItemsets_ocspStapling20!$B$21,FrequentItemsets_ocspStapling20!$B$22,FrequentItemsets_ocspStapling20!$B$23,FrequentItemsets_ocspStapling20!$B$24,FrequentItemsets_ocspStapling20!$B$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>{ocspstapling=true}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=A,ocspstapling=true}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=A+,ocspstapling=true}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=A-,ocspstapling=true}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=B,ocspstapling=true}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=F,ocspstapling=true}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=C,ocspstapling=true}</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>{rating=T,ocspstapling=true}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_ocspStapling20!$C$5,FrequentItemsets_ocspStapling20!$C$8,FrequentItemsets_ocspStapling20!$C$17,FrequentItemsets_ocspStapling20!$C$21,FrequentItemsets_ocspStapling20!$C$22,FrequentItemsets_ocspStapling20!$C$23,FrequentItemsets_ocspStapling20!$C$24,FrequentItemsets_ocspStapling20!$C$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25287371902618899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.122919264761698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1252507726508703E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1878219378625999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.01838095754487E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5751233530336702E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.553434907553E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3543349780404504E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1197385776"/>
+        <c:axId val="1197386864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1197385776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197386864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1197386864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197385776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>OCSP Stapling Null Value Ratings Distributions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(FrequentItemsets_ocspStapling20!$B$20,FrequentItemsets_ocspStapling20!$B$27,FrequentItemsets_ocspStapling20!$B$28,FrequentItemsets_ocspStapling20!$B$29,FrequentItemsets_ocspStapling20!$B$30,FrequentItemsets_ocspStapling20!$B$31,FrequentItemsets_ocspStapling20!$B$32)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>{ocspstapling=null}</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>{rating=B,ocspstapling=null}</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>{rating=F,ocspstapling=null}</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>{rating=A+,ocspstapling=null}</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>{rating=C,ocspstapling=null}</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>{rating=A-,ocspstapling=null}</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>{rating=T,ocspstapling=null}</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(FrequentItemsets_ocspStapling20!$C$20,FrequentItemsets_ocspStapling20!$C$27,FrequentItemsets_ocspStapling20!$C$28,FrequentItemsets_ocspStapling20!$C$29,FrequentItemsets_ocspStapling20!$C$30,FrequentItemsets_ocspStapling20!$C$31,FrequentItemsets_ocspStapling20!$C$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.2488206907769901E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0018977389795598E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1177140378463399E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7246109635091901E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0197364853874098E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.80285203058071E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5453017404977499E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1197390128"/>
+        <c:axId val="1197390672"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1197390128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197390672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1197390672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197390128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>528637</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>231155</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>560348</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -965,8 +4752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,13 +4804,13 @@
       <c r="A4">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0.267418532776663</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>19728</v>
       </c>
     </row>
@@ -1031,13 +4818,13 @@
       <c r="A5">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.25287371902618899</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>18655</v>
       </c>
     </row>
@@ -1087,13 +4874,13 @@
       <c r="A9">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>0.11139727810009201</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>8218</v>
       </c>
     </row>
@@ -1129,13 +4916,13 @@
       <c r="A12">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>8.9288618988233995E-2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>6587</v>
       </c>
     </row>
@@ -1157,13 +4944,13 @@
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>7.4554031339803706E-2</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>5500</v>
       </c>
     </row>
@@ -1171,13 +4958,13 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="1">
         <v>7.1788754541018296E-2</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="1">
         <v>5296</v>
       </c>
     </row>
@@ -1185,13 +4972,13 @@
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>6.6149758716044005E-2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>4880</v>
       </c>
     </row>
@@ -1213,13 +5000,13 @@
       <c r="A18">
         <v>30</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="3">
         <v>5.0940736322724098E-2</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>3758</v>
       </c>
     </row>
@@ -1227,13 +5014,13 @@
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="1">
         <v>4.4041099604185903E-2</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="1">
         <v>3249</v>
       </c>
     </row>
@@ -1241,13 +5028,13 @@
       <c r="A20">
         <v>31</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>2.2488206907769901E-2</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="4">
         <v>1659</v>
       </c>
     </row>
@@ -1255,13 +5042,13 @@
       <c r="A21">
         <v>15</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>2.1878219378625999E-2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>1614</v>
       </c>
     </row>
@@ -1269,13 +5056,13 @@
       <c r="A22">
         <v>17</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>2.01838095754487E-2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>1489</v>
       </c>
     </row>
@@ -1283,13 +5070,13 @@
       <c r="A23">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>1.5751233530336702E-2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>1162</v>
       </c>
     </row>
@@ -1297,13 +5084,13 @@
       <c r="A24">
         <v>11</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>1.553434907553E-2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>1146</v>
       </c>
     </row>
@@ -1325,13 +5112,13 @@
       <c r="A26">
         <v>9</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>5.3543349780404504E-3</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>395</v>
       </c>
     </row>
@@ -1339,13 +5126,13 @@
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>5.0018977389795598E-3</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>369</v>
       </c>
     </row>
@@ -1353,13 +5140,13 @@
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>3.1177140378463399E-3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>230</v>
       </c>
     </row>
@@ -1367,13 +5154,13 @@
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>2.7246109635091901E-3</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>201</v>
       </c>
     </row>
@@ -1381,13 +5168,13 @@
       <c r="A30">
         <v>6</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <v>2.0197364853874098E-3</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="4">
         <v>149</v>
       </c>
     </row>
@@ -1395,13 +5182,13 @@
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <v>1.80285203058071E-3</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>133</v>
       </c>
     </row>
@@ -1409,17 +5196,18 @@
       <c r="A32">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <v>1.5453017404977499E-3</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/analysis/queryResults/FrequentItemsets_ocspStapling20022018.xlsx
+++ b/analysis/queryResults/FrequentItemsets_ocspStapling20022018.xlsx
@@ -886,11 +886,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1141557472"/>
-        <c:axId val="1141558016"/>
+        <c:axId val="-1426134736"/>
+        <c:axId val="-1426132560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1141557472"/>
+        <c:axId val="-1426134736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,7 +933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1141558016"/>
+        <c:crossAx val="-1426132560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -941,7 +941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1141558016"/>
+        <c:axId val="-1426132560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,7 +992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1141557472"/>
+        <c:crossAx val="-1426134736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1036,7 +1036,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1271,11 +1271,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1197393392"/>
-        <c:axId val="1197387952"/>
+        <c:axId val="-1426133648"/>
+        <c:axId val="-1426131472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1197393392"/>
+        <c:axId val="-1426133648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,7 +1318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1197387952"/>
+        <c:crossAx val="-1426131472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1326,7 +1326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1197387952"/>
+        <c:axId val="-1426131472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1197393392"/>
+        <c:crossAx val="-1426133648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1421,7 +1421,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1656,11 +1656,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1197385776"/>
-        <c:axId val="1197386864"/>
+        <c:axId val="-1426128752"/>
+        <c:axId val="-1426191600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1197385776"/>
+        <c:axId val="-1426128752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1703,7 +1703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1197386864"/>
+        <c:crossAx val="-1426191600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1711,7 +1711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1197386864"/>
+        <c:axId val="-1426191600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1762,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1197385776"/>
+        <c:crossAx val="-1426128752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1806,7 +1806,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2035,11 +2035,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1197390128"/>
-        <c:axId val="1197390672"/>
+        <c:axId val="-1415218112"/>
+        <c:axId val="-1415221920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1197390128"/>
+        <c:axId val="-1415218112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,7 +2082,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1197390672"/>
+        <c:crossAx val="-1415221920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2090,7 +2090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1197390672"/>
+        <c:axId val="-1415221920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2141,7 +2141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1197390128"/>
+        <c:crossAx val="-1415218112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2185,7 +2185,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
